--- a/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 11,32</t>
+          <t>-10,83; 21,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 10,17</t>
+          <t>-13,3; 10,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 7,84</t>
+          <t>-8,14; 11,5</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 27,8</t>
+          <t>-21,9; 63,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 27,95</t>
+          <t>-30,59; 33,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 19,96</t>
+          <t>-17,85; 32,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,74</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 5,88</t>
+          <t>-8,37; 9,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 3,88</t>
+          <t>-8,94; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,8</t>
+          <t>-6,3; 5,3</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-1,54%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 12,17</t>
+          <t>-15,32; 20,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 9,59</t>
+          <t>-18,25; 15,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 6,02</t>
+          <t>-12,54; 11,57</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 3,56</t>
+          <t>-12,3; 7,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 5,78</t>
+          <t>-9,52; 6,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 2,86</t>
+          <t>-8,56; 4,43</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-4,24%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 7,83</t>
+          <t>-24,16; 18,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 14,46</t>
+          <t>-21,27; 19,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 6,86</t>
+          <t>-18,67; 11,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,65</t>
+          <t>-8,26; 4,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 3,11</t>
+          <t>-5,92; 4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,29</t>
+          <t>-5,72; 2,85</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,51%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-3,33%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 5,71</t>
+          <t>-15,9; 8,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,77</t>
+          <t>-13,76; 12,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,15</t>
+          <t>-11,89; 6,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 2,55</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 2,57</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 1,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,52%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 5,27</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 6,28</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; 3,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.081112976185358</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.728046373565045</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3111495211244042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 21,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,3; 10,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 11,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.98096505718475</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.34153501622237</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.276812665784243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,17%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.65920735943833</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.40122642942518</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.2672784423212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,9; 63,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-30,59; 33,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,85; 32,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.07200986339923177</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.04374349224341913</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.007583950403981244</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2589517032557585</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3029888152573894</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2010770666772811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 9,29</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 6,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 5,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.5356416571660738</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3297976421169532</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2949477909552539</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,14%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.089439445903034</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.63772623880834</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.344690520140446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 20,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-18,25; 15,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,54; 11,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.595695293266974</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.429120696409223</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.17530738552946</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.304180399805986</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.20486115410048</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.632237724504415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 7,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 6,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 4,43</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.02155319824644712</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.03533667436807676</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02781293040736002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1747908687187923</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1843377918698246</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1397588725697183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-24,16; 18,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-21,27; 19,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,67; 11,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1811459512539507</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.158703544166484</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1030716561387263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.6725318881338371</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.29503150167079</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.8904885150607056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 4,01</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 4,82</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; 2,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.35958805109178</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.212992384879575</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.661250558745987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-4,92%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,59%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-3,33%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.876821278353795</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.663893611979862</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.493378635821234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 8,24</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 12,24</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; 6,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.01497091447151777</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.03158984990723795</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02080205828620026</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2277454707224372</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2010522825790205</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1696066148190381</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 2,55</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 2,57</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,45; 1,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2229318374501372</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2165232904018169</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1366737475616643</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-3,52%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-2,34%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3330075126802556</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.630582242209677</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.9796878647088947</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,66; 5,27</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; 6,28</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 3,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.360562434281042</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.966098629632232</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.899100901604965</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.120285840461361</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.786538113984367</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.006353499791458</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.007039481672992471</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.03768107245348343</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.02169131826752215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1251313664243931</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1526842365626439</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1034703370035029</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1380657136710234</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.09418460420290105</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07160527198208796</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
